--- a/src/main/insert Sozialversicherungsdaten/10 Berufsgenossenschaft.xlsx
+++ b/src/main/insert Sozialversicherungsdaten/10 Berufsgenossenschaft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert Sozialversicherungsdaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3365E6E2-E078-4B97-BCCA-4103E463C781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFE256-B313-4973-9882-447F68C933F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34635" yWindow="2040" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35625" yWindow="7785" windowWidth="17280" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,13 @@
     <t>Berufsgenossenschaft</t>
   </si>
   <si>
-    <t>Berufsgenossenschaft Energie Textil Elektro Medienerzeugnisse</t>
-  </si>
-  <si>
-    <t>BG ETEM</t>
-  </si>
-  <si>
     <t>Berufsgenossenschaftskuerzel</t>
+  </si>
+  <si>
+    <t>Berufsgenossenschaft Nahrungsmittel</t>
+  </si>
+  <si>
+    <t>BGN</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,15 +395,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/src/main/insert Sozialversicherungsdaten/10 Berufsgenossenschaft.xlsx
+++ b/src/main/insert Sozialversicherungsdaten/10 Berufsgenossenschaft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert Sozialversicherungsdaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_berufsgenossenschaft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFE256-B313-4973-9882-447F68C933F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D65DE1-8867-490E-BC5F-3D8420553FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35625" yWindow="7785" windowWidth="17280" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4992" yWindow="1728" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
